--- a/Clean data sheets/Planula development.xlsx
+++ b/Clean data sheets/Planula development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86906545-BAEE-FC46-AC74-55774949F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E8252-52D9-0948-AB93-F72D93F50883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="2600" windowWidth="23840" windowHeight="12240" xr2:uid="{F6B3A956-405A-1A4A-A1C4-A9BA67756709}"/>
+    <workbookView xWindow="1760" yWindow="2500" windowWidth="23840" windowHeight="12240" xr2:uid="{F6B3A956-405A-1A4A-A1C4-A9BA67756709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>Week 4</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Week 9</t>
   </si>
   <si>
-    <t>Week 9</t>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE17B09A-7A83-DD4F-BF91-1C86345A7B9F}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>37.566137570000002</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>45.641025640000002</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>26.25</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>38.666666669999998</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>41.304347829999998</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>35.05747126</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>34.453781509999999</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>46.951219509999994</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>36.082474230000003</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>17.5</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>31.25</v>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>56.962025319999995</v>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>40.350877189999999</v>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>59.677419350000008</v>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>54.347826089999998</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>46.15384615</v>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>21.739130429999999</v>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>40</v>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>32.608695650000001</v>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>28.571428570000002</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>42.857142860000003</v>
